--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/60_Muş_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/60_Muş_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC48E6A-8085-49C1-9939-7BDE5CFB88BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2461CF9-F43A-459A-A791-10DAB0D5517F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC89497A-2272-4D5B-9080-0761A6F5BD24}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFF0C18F-928E-4A83-A948-DA77FD82C504}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{3CC484D6-793C-411F-9F60-C1BAE3DF01D0}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{3002F9E3-B086-48D1-BE29-60B0C9F7818D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{65F910E5-A75C-466A-A141-51DC6077EB79}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{B1DC984D-DB4B-426D-BF73-14A800318EDF}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{FD438A5A-F952-4293-A598-D273B49C098C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{7FFA0C26-C0DC-4E7B-A124-1F61F7784FCC}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{E47D686A-3CB0-4E55-841B-A6A3E9B5DE47}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{342C9D7B-4815-4B29-9441-512651F59B4C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796C5E4B-4E00-4970-ADE6-C4B5C4BBA789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB4561E-D35D-4857-A629-6F6F89B55FE7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2419,18 +2419,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9A60B2CE-3027-4100-8B65-F5D477FEFA67}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A4BD6684-7A37-4891-9075-3B2617D1DF78}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{04CF6590-9CA7-47B4-8956-1857205CCBE9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{59C828B2-D03A-49FF-A231-CF31B6EFD83B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B1F3B00F-8894-4C90-91EB-4B759FA343DF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{13889A8B-61AF-4778-ACED-F729A5D78F95}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{810E9149-D28A-4230-9251-EF946DB226D2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EE7E4D3E-4A3D-4477-A2B2-AF9BBDAEE09C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0FDA5D18-AB70-4883-A5F3-67051387AF44}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0D9BE9C6-A662-4B1C-B1ED-8A986D7ED78D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AD58DE30-9C32-4BCC-BBEF-E6282BFBCA47}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{143806C4-AA8C-4B94-9164-D160F399BF79}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{23F1768F-038C-4DE0-A3FE-BE4EA9CA06B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2CF71375-6B8D-4891-A732-F349B6A222AD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{71E6A122-FCEF-4CA4-AABF-6D1E7322C5B6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0D149079-40C5-44EA-AFEF-52478FB2DB2B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AF5501CB-666F-4CB9-9C63-89D8F2061F17}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0FAB17CB-9E2B-47B1-BC73-A4529EE624DB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{14AAA154-8291-4402-8153-C29E6D2B2D7F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7BAB6342-3D1D-41E3-A1A4-1D0D5CA35DEE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9E780322-28B0-4776-BDD3-E5354C660DE5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E85D8D25-2466-4D28-A74B-E065F00C8445}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EBC14BAD-2026-4961-A889-7A118396FAA6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B25D0857-2827-4EBC-A03A-05CE8181A71A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2443,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC98924-AD40-40C5-839B-9BD23CDE7356}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC2E937-4DC7-4CBE-A5E4-CA25F0A6326C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3590,18 +3590,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B0927FF4-97FD-49CC-A9C4-D9134DAA3060}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0E673BC8-B1DE-49E1-B3A8-51B509008ED6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{07C5B42C-A68B-4A93-B100-4DA9EDF41036}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BD5FB4B0-3AAD-4A23-BBA3-38AC7C28894A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3E776DD8-C595-4016-8B7C-9CA29D7087A1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{330C443D-E639-4B7B-873B-D77929924F63}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{578089C6-50F9-44E5-99F3-9510F0BD7B93}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{379F4382-7DC5-4CC8-A2CA-BAACB05CA515}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0F8F276F-625C-4FB6-92C6-067E65AF10AD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{00EEE8A8-2B84-4A84-BE8C-E54105C22C3C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1909734F-F8D0-44D3-8C56-1360E68B729F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8DEB4C07-25E4-403C-8725-C7155F7BB960}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{90D41A64-2971-4035-804D-DCA5D34FE474}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{78D759FB-BCCB-408A-8C76-2D55843EE559}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DBD5BA31-55BA-4463-BE46-B833B7F08742}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F681C430-A96A-4C5E-9DBF-4ACD97C150C9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{040E8A86-603A-481B-ADE8-B7D5F28CC110}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A594C993-78E7-473A-A1B7-1B66A0D1D066}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C4863945-E2A5-481E-88DD-F6CC9DD34D55}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EECE97D5-1B8B-4362-B54F-969F280C7379}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C0A45082-5946-483D-9C6D-8977E35B33DA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BE094307-7366-44F5-9920-0ED84F5A7CF0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{143C161D-331F-4FA9-B331-F6EE63E17BF7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FF554A95-8954-49D4-B82B-29E8E22D4EE2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3614,7 +3614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01224DB5-1F34-4840-9412-258C504F9A6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA02EA24-4A50-4EC2-9A68-F72777068CC4}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4753,18 +4753,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C2077A10-D4F2-4790-BFFB-8A4587B38E4D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C0701F33-9A70-46CB-B94A-0FBB00AB81C6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0A75872D-B144-44F0-AC8F-A7C4392467BA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{715DF925-94AE-4649-AD34-929914508491}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AF297C76-ABAC-4117-8CD4-FC432768D696}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{21739694-68CA-4DF8-836E-C7F79DB6D545}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C97FF4D0-BD78-4974-8260-B1FCD5B60EF4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{54A2D9EE-8298-4409-B858-5FC16081CB78}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{27DFDBAD-9721-4A9E-9E8A-F5FB5C9AB6C8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ADA3294B-621F-4065-A6A1-C4A976578D02}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{10F48DC0-990C-46DB-930E-75F8A2CD01E5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{59163973-E0FC-4B05-8787-36149A32C139}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A8DE2BA5-A160-45A8-B52D-11E865B2B279}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{43542C0D-A3CF-4EB2-99F0-4EC4A5973088}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{ED95CAE7-7A0B-4BA9-8691-7A8A410C17BC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0F14B071-E6D3-44DF-9AE3-EA960B15E2A4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{428144F7-82FE-4CB6-9C42-190CEA2AA5B8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{59379B7F-29A9-435E-90AE-30BD91386B6F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E3830C67-9641-4985-861B-E0D4E66BDFA6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A6DE1067-5A99-4E95-9128-9A5E99DA4A0A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{198F0E1D-32F7-499C-94D2-E17C41E89C35}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ED141124-872A-4E7C-BA06-BA15BF3A7548}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0339A39F-96BB-4184-8B69-6B837789646D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3C28AAB7-0D31-4114-9A6F-E59968674F15}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4777,7 +4777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1323E8-A921-4317-97A7-4BD2C5234481}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93776D5D-B395-4BB9-95B5-6B2174621448}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5912,18 +5912,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{29E350E1-F22C-4230-A585-FBD2ED29AD05}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F3829538-4E95-481A-A67F-96604178F24B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{89CC58C1-DDC7-4852-A8E4-59B991F9D610}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FC2EFB2C-75DB-4BEC-9EAD-363ED8352692}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{68A656C6-2D45-4857-BDD4-3CB3CE55EF82}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2CFA9C56-1B46-4DDE-B5CB-B58CF0CD10B2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7387E984-EEED-4264-B629-43522459576A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9BF91CB7-D38F-4D85-BB7E-13B28299413D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{150BB3A8-179E-450F-B6A5-AD9075A58D2C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ED234A42-031D-40B9-BD2A-FFC33D5EFDBD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9968B94E-F68A-4CC5-9271-527FB775BBB0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CEC2CB04-EE2B-47E4-B3ED-8EFFE1DDCD28}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9E7435F3-EC0C-40EC-9F54-36C13280C4BC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C5FA4C1F-127D-4D59-A3BF-2F5F03429475}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C7E8A79F-ADF9-4794-8B8D-9F5547F123B6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DF06EB36-ED8B-4A69-876C-FE583E8430EF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{71F9EA0E-D167-4A6A-9473-B99CFDFC1AE0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{97A6EB41-E41D-46B7-B69C-B2430D4FBD4B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D2F172C0-EC1D-4839-9B16-D1EFCA837103}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{876F7CD2-1D52-473C-B545-6F4FCAEA6A82}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{095B00C6-5A6F-4FDF-A3E4-08C3A4FF4B51}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{92EA4193-D92F-4EBD-827C-51F414678966}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A8864C7D-00AF-46AC-AB3C-1DF12909A61D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3F633BC0-9D6F-4C33-9C4C-0FECC3A6FCB4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5936,7 +5936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1739C250-9BF4-4685-A671-4B8D211A9DA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5A80E0-894B-4C62-838E-CE80FC20EFB8}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7121,18 +7121,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{972AD4D5-80A2-40EE-948F-78EC08C423D4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B545FDF6-3CE6-461E-874E-78EB5E54297A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2A22B06C-CE57-4048-A176-E970F41024E0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DBB50DE6-406B-43A0-8CB9-BA5EA3E474BC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A4539BCA-6199-4C5B-B995-94A339BE50EB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9162006A-64DD-4BDA-A5FA-93CA5DB0CDC4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{ECCDD394-26C9-4017-BCAE-9A01FDB7144D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FC647B6D-BEA6-4BC5-8274-A36E2D964AFB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{144B349D-5CA0-4E7C-A5E9-23793270C088}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1138EEAC-DC98-45A6-9A5C-369C9850B180}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4F83DB06-E7B0-40C6-8235-13614A1BDC47}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{31C5C20D-1A66-4EBC-83F1-1176E2A0D684}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6DC0A0FA-1B46-40D2-90A0-201370EB7CDD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{869CB892-2BFB-4402-B09E-ECB298179832}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{63EEA140-CB64-445B-9364-6191324F0AF4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BC506D6E-FF13-4124-86CB-45BE9CE605D8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5CAD9F74-223E-49F5-A219-68D62A136555}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3CB89674-0B98-481B-A2DC-6CE8E6D0F28E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{72204ED0-421E-4975-83BD-4A6DA87292CF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5BEA13DA-B876-473E-8D53-B18DA45AA872}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{01154364-D87C-4927-A8A0-4F1882452C46}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A73BB1D9-EA49-4F5F-A346-86FCA045E52B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B8C26430-DEE5-440F-AD06-8CF39846FAAA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{92F3F9B3-84EC-4ECA-A809-8376A3BA7B57}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7145,7 +7145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9694D88F-E11C-4254-8A16-632C09BFFA77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1E7A5D-4B68-4A1D-BDC6-5A71A41B8D79}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8330,18 +8330,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CF38F5E7-3B44-4888-A7F9-978BAC7BC8A7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1F253411-9176-4D9A-A01E-23C0BA835305}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{73ADC5DC-7336-48ED-8E26-43C2748B1D7D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{52B30D34-CB2D-45B5-B957-031795847EC0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CBF70795-16F1-4F4C-A83E-9832529DF0CA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C7A77476-CB89-4A9B-AD7C-833DDD060738}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1A7C3972-BE1C-471D-8340-43BD7B61E34E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4ED186F1-E0C6-41AB-B5A3-5D19231C1218}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{63A7FFD9-E8F2-4F48-8139-EA9697D6ACBB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F7843602-2515-42DB-A8C4-970742CA04D1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A2A4BEF2-4EF9-4920-A23D-807457744909}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9F63235B-EA5B-4588-8C97-CA2FE3C84CBB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{414812E0-5FAB-4AAF-954A-A53B9220EC58}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FFA0E70E-1830-448E-80C2-95F35AFE463F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{46E0A70C-F7AE-4E17-9CD0-C169529F199C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5610AC3D-4281-4456-A940-264DCA6BA367}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7EAE30F7-6223-4DDE-8DB5-ACF67747166A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{02A714ED-FF43-4384-94DC-9ADF2DC0D88F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D2894E03-8A35-4AB9-B799-488B555E0E7A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{68E302FD-F442-4075-8273-89081C3990E4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{11F577EC-9A45-4AED-B445-C0E0EA973451}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{989DE987-6FF8-4226-93FC-665F4AD0E79D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8DF9BD80-8E65-4769-91F1-978AF682445F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5276DC27-0E96-4FAE-A503-8D1135270D3B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8354,7 +8354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3610535-D40B-4AF8-B1E1-10BFAACA8349}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB34F01-F289-485D-A93F-CCA8CED2626F}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9533,18 +9533,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{950B46E3-C7E0-4078-B780-3FB9E5F3F96F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{35714DDA-CE40-47FD-8197-378EB9B4189C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D56576BF-C5EB-4B25-AD5D-64771670D58A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6D0C5E5B-0D3A-40E2-924D-A2F00A5736FA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DF294810-9390-4200-8A8C-8445EF3D4345}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0D7D4C3A-6AC1-40E0-9A51-7FABA659F9E9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5CDB7FBE-6CCA-487C-819E-8DCF454EBB23}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2DCD247B-3FCA-4FCE-AA44-1A48CEC3FAF1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{744080D2-4394-41AF-8D5F-6187CF9F347D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1D17B6B4-1AE2-4826-8932-0CB7F21E7524}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{460B0B91-FD25-423F-B4A5-09BC5CA61A7C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0EDB4CDA-DEAC-4772-968F-7AB74E1B1FE0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{043FBDEC-7507-498A-BB95-B50336BB6617}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E02BB616-5F3B-4F85-BDB6-6B4E26970B9B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{691C455B-B8A4-47EE-B4B8-03FB9B889A53}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{889F574D-34CD-4476-971F-FA0B8EA78BA1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0C541758-58C0-463D-A3DF-6C69832AAEA0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{03A0AF8D-CFCA-4A14-AEFD-33F2B9DB743C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{27EBBA88-690B-4E68-B6C4-9F5A16D46168}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8061F298-8C01-42A3-9030-85B1D8129961}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2A5FD910-0DF7-4759-9141-3D6C69AE659F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D7656FEA-B4EF-4B84-ADFE-6D91590BBA2B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B84645CB-DE32-4821-9D68-CD12123999DB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{12153F0C-1CF6-43E7-B89D-1D688337D09D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9557,7 +9557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E906DE9A-9EE2-4F40-A585-18BCB6177F3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE00F57B-A363-4CE3-AA58-BA91D4664AF0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10730,18 +10730,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AF10B8F3-7888-4CF9-83AA-9147163061C5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5B68B6D0-45CC-4C71-8E90-A8A9B29E562F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4C0BFBC9-273C-4722-BE36-2E57E13E1CD2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3BB78A36-3108-498D-A229-62A45A2A1374}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{83A53976-EBAA-47E6-A628-3058DCACE46B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{42683D6A-B44B-454A-9B14-3EC45FA1893B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E8E29297-B31C-431B-A573-B6B557A34EB5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CB62372D-5BDB-4317-8BA0-48E024E141C3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{89CC6FFE-18D4-4C8D-B610-4E187E15E71A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8611AD7B-FB22-4F19-8BA5-DBC5887B59B0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EE77020F-F587-4137-BFEA-9614853F5D31}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7EE0E366-151B-4166-986B-5890231747D2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CAD42A3A-596C-4D2E-AB60-0C5E49B9DC9D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{30CE7FB2-CDD8-4333-9A11-970AA4328DD4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B1CE6F80-5148-4217-BCCD-1C9F5DC8E1FA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0173883B-8502-48A9-9EE7-ADB3C13BC5E2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{84D1912C-116C-4AF8-A220-BE8D768BE758}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{342A461B-C1A7-47AC-83E0-D846570ECE29}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{412D5AF8-A4A9-4ED5-8C59-F3EC3A2F368A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0DE97958-840C-4268-9945-F872D00D9D26}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CD2EA3F3-08E5-48C7-A259-BAAC1F395C7D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{08BE0A23-F876-445E-A6C4-089888A88E72}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{41DE70A4-A20C-45BE-A943-AFFDFCE83F46}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{20761F9F-1B4A-48A0-9C3B-0E6D7D9B5C7D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10754,7 +10754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC87AA9E-F10B-4603-B9A7-710755CC2607}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C0E9B4-D06A-45AD-9D72-C6820D9E1079}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11927,18 +11927,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{42E1BA64-3099-4320-8A9A-0EBEA90E7BF0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{16EE5A3E-8B72-4016-8FD1-7FDFE32B783F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EFE6FAAF-AA94-4862-81B8-7A397E47FD51}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C4A43024-15BC-429A-839E-B43475810D16}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BC35EE85-773F-4395-A7BA-B64E522F6B55}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{90F2187B-874F-4D5B-9BB6-2470D85F7568}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{12BF5689-1313-4EDD-B3A6-54816C3A5F54}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DE1D7E11-2F38-4BB0-805A-BBC3E7820262}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B18DD390-3728-4696-A8A6-CAD7A347F0BC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{95B5B686-B1B5-4B7C-9135-BA1AE8A1CCA4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{41A8AB6A-3E32-4159-8C5A-F4BE6706F9B1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2F3018EB-DA2D-4C98-BDC4-1E10643954E4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7D78268D-D65E-4834-A3DC-BE8758CDB4C3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{68C56105-6F13-4151-8A60-9919A2B5B9CE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{00CC31CA-8CF1-4A79-845D-78F1AD0791F1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BF98237A-7E6C-4CC9-8D6E-04F4137656FA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{07DDF8D2-2E35-4921-9D5C-F1539050C9B9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2510E922-FE23-4367-B34D-44DEFF694049}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9171BF35-60C4-409F-80AC-0D576DFCE9E4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6E400CE6-A9B7-4486-B677-D434411BB796}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AC070D65-ABAA-4CD9-9EDA-6EFA4E552CFD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7E5A5F05-56B1-420E-AFFC-56FDBF0A6604}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D3797354-80C1-40D4-BE70-683A9D17592D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{93187FB2-8E51-4458-BF72-C6B0C9AFF5EB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11951,7 +11951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CA088D-70F6-47B9-AF45-4BA77534FE21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86137B8D-C364-4D1B-9A22-7E977A6A9C40}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13104,18 +13104,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6B90807E-3B99-46F8-ACB2-32D798FCF09B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{68340538-3BE2-40D8-A2E3-ECC7D9B8CE38}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FEAFF885-F9A0-453B-8ED4-70349E4092DC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BF054B75-836D-4FAB-A93C-EF89E74E0AB4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{983C90E1-E49A-42BB-B27D-134767D91684}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F02A28CE-3189-42AD-9819-27DEB521B2BA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{643F0D2F-2A46-4CF1-BF51-DF1C72F0D200}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9DE2B98D-6676-43E2-B0DC-22673CF7865B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FA82AD8D-D07C-456C-87F2-F0A63139C5D3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{54BDD403-289A-4887-81ED-746EBA929F47}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0A0E1645-1F65-4532-96D3-4A7BDE0FCE6B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{388EDDD3-A77A-45F1-830C-01DFB78F6532}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D476960A-287E-4412-9F66-485FDF140C3F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A87973F1-EC55-4F2E-BFB3-B25E9907AF92}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4A4A546A-02D1-4356-B6EB-4F5DD10A44CA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{19791B71-91D7-408C-AFA8-5CB3B414FCEC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6510916A-4871-4A7F-AD14-86BF64F79380}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D811362E-93A5-4B73-BDDB-2B0628416CDD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CE3A8CED-17B5-4445-9DEB-0A814968AC80}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1E73C80A-2F41-48C3-AB8D-69D5AD606AEF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CCCBAF57-7DF2-40DD-9456-EFF6C3FD9C11}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FB8C336C-4EC3-41CC-9CD8-E3F23BB11DFD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{334EFD15-8474-4EEC-A122-6F39D67D0241}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{83B2D5A0-C1F2-4B8E-AC8B-67EFD2C40BE3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13128,7 +13128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38D05B2-2140-4E85-9C82-494A5C7406A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AE31CD-3887-418B-991E-CCA057E895FE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14277,18 +14277,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{990E603C-C209-4FBF-8537-D43710C803C1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6DB71B11-BBD6-4384-B755-F4AD3A1FC7BC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B6BF1733-37DC-4EAC-BCA2-E616FF6A3C1A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CCA9C9A0-F218-44FC-930D-16EE9892BD9E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{18F86826-A6DF-4166-824B-56009F4F664E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C7E59DA3-7ECF-4D5A-A889-A41CF93B5329}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8AEA1381-0F35-4411-BBD4-CDBB0C5835F0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A570F34F-E4E9-41B6-AC8C-861A3B48BE80}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E6D38049-E59E-495A-9FF0-5DA3B5BBC5F4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{39ED9935-7CA2-46D6-B899-CC9B08B0581A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EC811B3B-B8F7-462F-896C-D79FBD29062B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1F6326A0-989A-4442-98A3-C1BB09E522D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F682B643-8210-488F-8797-E0329DFB346A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{118B4450-6C8F-4692-B577-AD2837CA15AF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5C486DFD-B8C3-45A9-B11A-0D9814189266}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{05A4EEBB-EBFA-4303-8D89-D3DF5E6B52F9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{02392D42-5358-4FAB-9BF9-5BB29768A61A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DE3431B5-6AD6-441C-8339-2D42CC364E83}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5BD92611-DBA5-41C0-B1EA-D882335D89AD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BB5BEBFD-3DA4-4091-AFF1-2C355DD7A6B4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9707D085-53B7-4ED1-A39B-2F327CB658F5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4B3A713B-B985-4614-9834-FEE9F2CBEAF9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3C197C90-0569-46AA-B959-B35DCC302805}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{82EE44DB-6E08-4D28-81EC-427041F9F8CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14301,7 +14301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE51094-F290-47E7-A741-8CBAA98CA389}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E53B8D9-C244-4983-A6E9-77CB210FCC68}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15450,18 +15450,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4DD5B7ED-1D0A-4DAE-B60A-9697F35CA3FB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8D2A5871-6605-4CDB-BF74-7F477EF279CD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6AC5AC4D-C087-412B-A28E-EF2B0943C205}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{31FEFAA7-893B-4ECC-9535-0C659610028D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AB73AD6E-5DCC-4359-BBB7-93CCB70B0623}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C7FDAB93-27A1-4C94-8851-2E50DE3DAD19}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{07E68EAB-AC84-4731-871F-09FCC2D9348E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D8A9E29A-BEAE-415E-892F-2B1AD1249744}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4C0A940E-FEB4-48A4-BF28-62501541151A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1C213968-75FD-453E-96CF-5045243387DD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FCB8D57B-3B0C-4346-9131-01F21EE5BDC2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0464E144-3E1A-4576-B971-161469A6E620}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{708E472C-A597-4BE3-B9FA-6BA0E9DB08D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D8926D90-CD4D-4AA7-BD9D-4B30A3C8128D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C10D332A-50B1-4D99-90D6-EF59F8FD9D8C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CA23CC3E-BB49-40B3-8F74-A10320F21907}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{98F39F27-9960-4B8E-BAAD-C51A81142577}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2ED0CE61-6623-4838-A4AE-AE72F7B11B5E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F1A4D42F-AD84-4E3F-89F3-8695FF18A522}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F30303F4-E958-4DB1-B959-0A0606F66B58}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{680EBDA6-690F-45CA-BD71-2275884678FD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ED45FC9D-6E61-4B95-ACB9-5DDF7EE40579}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{49F668EC-B8FF-40F1-AAF9-318C0E3DA761}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4DEE8571-102A-490D-ABAE-5055887AB64B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
